--- a/forms/saintperu.xlsx
+++ b/forms/saintperu.xlsx
@@ -132,10 +132,10 @@
     <t>yes</t>
   </si>
   <si>
-    <t>. &gt; 0 and . &lt; 99</t>
-  </si>
-  <si>
-    <t>El PIN debe ser un número entre 1 y 99.</t>
+    <t>. &gt; 0 and . &lt; 150</t>
+  </si>
+  <si>
+    <t>El PIN debe ser un número entre 1 y 150.</t>
   </si>
   <si>
     <t>select_one mejor_igual_peor</t>
@@ -643,7 +643,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -685,7 +685,6 @@
       <color rgb="FF222222"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -727,10 +726,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -767,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -829,13 +824,10 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -844,41 +836,38 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1409,10 +1398,10 @@
       <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="12"/>
@@ -1490,7 +1479,7 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1505,7 +1494,7 @@
       <c r="J15" s="12"/>
     </row>
     <row r="16">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -1535,13 +1524,13 @@
       <c r="J17" s="12"/>
     </row>
     <row r="18">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>55</v>
       </c>
       <c r="E18" s="13" t="s">
@@ -1550,7 +1539,7 @@
       <c r="J18" s="12"/>
     </row>
     <row r="19">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -1565,16 +1554,16 @@
       <c r="F19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="23"/>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1586,7 +1575,7 @@
       <c r="E20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="23"/>
     </row>
     <row r="21">
       <c r="A21" s="13" t="s">
@@ -1598,10 +1587,10 @@
       <c r="C21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -1613,10 +1602,10 @@
       <c r="E22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="24"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -1631,7 +1620,7 @@
       <c r="F23" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="23"/>
     </row>
     <row r="24">
       <c r="A24" s="19" t="s">
@@ -1649,10 +1638,10 @@
       <c r="F24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="25"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -1667,10 +1656,10 @@
       <c r="F25" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="24"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -1685,7 +1674,7 @@
       <c r="F26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="24"/>
+      <c r="J26" s="23"/>
     </row>
     <row r="27">
       <c r="A27" s="13" t="s">
@@ -1697,10 +1686,10 @@
       <c r="C27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="23"/>
     </row>
     <row r="28">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="13" t="s">
@@ -1712,7 +1701,7 @@
       <c r="E28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J28" s="24"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
@@ -1724,10 +1713,10 @@
       <c r="C29" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J29" s="24"/>
+      <c r="J29" s="23"/>
     </row>
     <row r="30">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="13" t="s">
@@ -1739,7 +1728,7 @@
       <c r="E30" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="23"/>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
@@ -1751,10 +1740,10 @@
       <c r="C31" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="23"/>
     </row>
     <row r="32">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -1766,7 +1755,7 @@
       <c r="E32" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="J32" s="24"/>
+      <c r="J32" s="23"/>
     </row>
     <row r="33">
       <c r="A33" s="13" t="s">
@@ -1780,7 +1769,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B34" s="13" t="s">
@@ -1805,7 +1794,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -1830,7 +1819,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="13" t="s">
@@ -1844,7 +1833,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B39" s="13" t="s">
@@ -1853,7 +1842,7 @@
       <c r="C39" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="D39" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -1872,7 +1861,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -1886,7 +1875,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -1937,7 +1926,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -1985,7 +1974,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -2036,7 +2025,7 @@
       <c r="C51" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2050,7 +2039,7 @@
       <c r="C52" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2064,7 +2053,7 @@
       <c r="C53" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2087,7 +2076,7 @@
       <c r="H54" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="26" t="s">
         <v>145</v>
       </c>
       <c r="J54" s="12"/>
@@ -2115,13 +2104,13 @@
       <c r="AI54" s="17"/>
     </row>
     <row r="55">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="27" t="s">
         <v>148</v>
       </c>
       <c r="D55" s="20" t="s">
@@ -2131,7 +2120,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="12"/>
-      <c r="L55" s="28" t="s">
+      <c r="L55" s="27" t="s">
         <v>150</v>
       </c>
       <c r="N55" s="17"/>
@@ -2161,7 +2150,7 @@
       <c r="A56" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="29"/>
+      <c r="I56" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1013">
@@ -2195,7 +2184,7 @@
       <c r="A1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2207,7 +2196,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="30"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -2225,40 +2214,40 @@
       <c r="Y1" s="9"/>
     </row>
     <row r="2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>156</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -2269,7 +2258,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>156</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2280,68 +2269,68 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2349,22 +2338,22 @@
       <c r="A13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="33"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2372,10 +2361,10 @@
       <c r="A15" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2383,10 +2372,10 @@
       <c r="A16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2394,10 +2383,10 @@
       <c r="A17" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="33" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2405,10 +2394,10 @@
       <c r="A18" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2416,10 +2405,10 @@
       <c r="A19" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2427,10 +2416,10 @@
       <c r="A20" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2438,10 +2427,10 @@
       <c r="A21" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="33" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2471,10 +2460,10 @@
       <c r="A24" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2555,10 +2544,10 @@
       <c r="B1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>203</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -2566,10 +2555,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="5" t="s">
         <v>206</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -2578,8 +2567,8 @@
       <c r="D2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="38">
-        <v>2.020091601E9</v>
+      <c r="E2" s="36">
+        <v>2.020110401E9</v>
       </c>
     </row>
     <row r="3">
